--- a/gerador_mente_superior/trezentosteste999.xlsx
+++ b/gerador_mente_superior/trezentosteste999.xlsx
@@ -35,8 +35,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -118,7 +119,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -127,8 +128,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -327,12 +336,12 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -341,225 +350,208 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <f aca="false">_xlfn.ORG.LIBREOFFICE.RANDBETWEEN.NV(0,14)</f>
-        <v>4</v>
-      </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="n">
-        <f aca="false">_xlfn.ORG.LIBREOFFICE.RANDBETWEEN.NV(0,14)</f>
-        <v>3</v>
-      </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="n">
-        <f aca="false">_xlfn.ORG.LIBREOFFICE.RANDBETWEEN.NV(0,14)</f>
-        <v>1</v>
-      </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="n">
-        <f aca="false">_xlfn.ORG.LIBREOFFICE.RANDBETWEEN.NV(0,14)</f>
-        <v>4</v>
-      </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="n">
-        <f aca="false">_xlfn.ORG.LIBREOFFICE.RANDBETWEEN.NV(0,14)</f>
-        <v>14</v>
-      </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="n">
-        <f aca="false">_xlfn.ORG.LIBREOFFICE.RANDBETWEEN.NV(0,14)</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="n">
-        <f aca="false">_xlfn.ORG.LIBREOFFICE.RANDBETWEEN.NV(0,14)</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="n">
-        <f aca="false">_xlfn.ORG.LIBREOFFICE.RANDBETWEEN.NV(0,14)</f>
-        <v>8</v>
-      </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="n">
-        <f aca="false">_xlfn.ORG.LIBREOFFICE.RANDBETWEEN.NV(0,14)</f>
-        <v>6</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="n">
-        <f aca="false">_xlfn.ORG.LIBREOFFICE.RANDBETWEEN.NV(0,14)</f>
-        <v>9</v>
-      </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="n">
-        <f aca="false">_xlfn.ORG.LIBREOFFICE.RANDBETWEEN.NV(0,14)</f>
-        <v>5</v>
-      </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="n">
-        <f aca="false">_xlfn.ORG.LIBREOFFICE.RANDBETWEEN.NV(0,14)</f>
-        <v>11</v>
-      </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="n">
-        <f aca="false">_xlfn.ORG.LIBREOFFICE.RANDBETWEEN.NV(0,14)</f>
-        <v>14</v>
-      </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="n">
-        <f aca="false">_xlfn.ORG.LIBREOFFICE.RANDBETWEEN.NV(0,14)</f>
-        <v>14</v>
-      </c>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="n">
-        <f aca="false">_xlfn.ORG.LIBREOFFICE.RANDBETWEEN.NV(0,14)</f>
-        <v>8</v>
-      </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="n">
-        <f aca="false">_xlfn.ORG.LIBREOFFICE.RANDBETWEEN.NV(0,14)</f>
-        <v>12</v>
-      </c>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="n">
-        <f aca="false">_xlfn.ORG.LIBREOFFICE.RANDBETWEEN.NV(0,14)</f>
-        <v>5</v>
-      </c>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="n">
-        <f aca="false">_xlfn.ORG.LIBREOFFICE.RANDBETWEEN.NV(0,14)</f>
-        <v>9</v>
-      </c>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="n">
-        <f aca="false">_xlfn.ORG.LIBREOFFICE.RANDBETWEEN.NV(0,14)</f>
-        <v>13</v>
-      </c>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="n">
-        <f aca="false">_xlfn.ORG.LIBREOFFICE.RANDBETWEEN.NV(0,14)</f>
-        <v>1</v>
-      </c>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="n">
-        <f aca="false">_xlfn.ORG.LIBREOFFICE.RANDBETWEEN.NV(0,14)</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="3" t="s">
+      <c r="B22" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
